--- a/Document/K4 PKG Tool Cleanner System IO List.xlsx
+++ b/Document/K4 PKG Tool Cleanner System IO List.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\156607\Amkor_Project\PKGSawKit_CleanerSystem_New_K4\Document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD10136A-F856-4C1E-B8D0-406DEA901F06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4C93A0C-8010-4033-99D6-96112EB186BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="929" uniqueCount="242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="927" uniqueCount="242">
   <si>
     <t>X000</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1233,7 +1233,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1315,6 +1315,15 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1329,18 +1338,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2843,8 +2840,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59ED944E-45E2-43B9-AFC3-7A7261968936}">
   <dimension ref="B2:N37"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A15" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2864,22 +2861,22 @@
   <sheetData>
     <row r="2" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="3" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="27" t="s">
+      <c r="B3" s="30" t="s">
         <v>128</v>
       </c>
-      <c r="C3" s="28"/>
-      <c r="D3" s="27" t="s">
+      <c r="C3" s="31"/>
+      <c r="D3" s="30" t="s">
         <v>128</v>
       </c>
-      <c r="E3" s="28"/>
-      <c r="F3" s="29" t="s">
+      <c r="E3" s="31"/>
+      <c r="F3" s="32" t="s">
         <v>129</v>
       </c>
-      <c r="G3" s="30"/>
-      <c r="H3" s="31" t="s">
+      <c r="G3" s="33"/>
+      <c r="H3" s="34" t="s">
         <v>129</v>
       </c>
-      <c r="I3" s="30"/>
+      <c r="I3" s="33"/>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B4" s="5" t="s">
@@ -2993,7 +2990,7 @@
       <c r="D9" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="E9" s="32" t="s">
+      <c r="E9" s="27" t="s">
         <v>237</v>
       </c>
       <c r="F9" s="6" t="s">
@@ -3015,7 +3012,7 @@
       <c r="D10" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="E10" s="33" t="s">
+      <c r="E10" s="28" t="s">
         <v>236</v>
       </c>
       <c r="F10" s="6" t="s">
@@ -3115,7 +3112,7 @@
       <c r="B15" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C15" s="35" t="s">
+      <c r="C15" s="29" t="s">
         <v>240</v>
       </c>
       <c r="D15" s="6" t="s">
@@ -3135,7 +3132,7 @@
       <c r="B16" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C16" s="35" t="s">
+      <c r="C16" s="29" t="s">
         <v>241</v>
       </c>
       <c r="D16" s="6" t="s">
@@ -3207,22 +3204,22 @@
     </row>
     <row r="20" spans="2:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="21" spans="2:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B21" s="27" t="s">
+      <c r="B21" s="30" t="s">
         <v>130</v>
       </c>
-      <c r="C21" s="28"/>
-      <c r="D21" s="27" t="s">
+      <c r="C21" s="31"/>
+      <c r="D21" s="30" t="s">
         <v>130</v>
       </c>
-      <c r="E21" s="28"/>
-      <c r="F21" s="29" t="s">
+      <c r="E21" s="31"/>
+      <c r="F21" s="32" t="s">
         <v>131</v>
       </c>
-      <c r="G21" s="30"/>
-      <c r="H21" s="29" t="s">
+      <c r="G21" s="33"/>
+      <c r="H21" s="32" t="s">
         <v>131</v>
       </c>
-      <c r="I21" s="30"/>
+      <c r="I21" s="33"/>
     </row>
     <row r="22" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B22" s="5" t="s">
@@ -3346,15 +3343,11 @@
       <c r="B27" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="C27" s="3" t="s">
-        <v>218</v>
-      </c>
+      <c r="C27" s="3"/>
       <c r="D27" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="E27" s="3" t="s">
-        <v>214</v>
-      </c>
+      <c r="E27" s="3"/>
       <c r="F27" s="6" t="s">
         <v>101</v>
       </c>
@@ -3419,13 +3412,13 @@
       <c r="B30" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="C30" s="32" t="s">
+      <c r="C30" s="27" t="s">
         <v>233</v>
       </c>
       <c r="D30" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="E30" s="32" t="s">
+      <c r="E30" s="27" t="s">
         <v>235</v>
       </c>
       <c r="F30" s="6" t="s">
@@ -3450,7 +3443,7 @@
       <c r="B31" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="C31" s="34"/>
+      <c r="C31" s="16"/>
       <c r="D31" s="6" t="s">
         <v>89</v>
       </c>
@@ -3468,7 +3461,7 @@
       <c r="B32" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="C32" s="32" t="s">
+      <c r="C32" s="27" t="s">
         <v>234</v>
       </c>
       <c r="D32" s="6" t="s">
@@ -3633,22 +3626,22 @@
   <sheetData>
     <row r="2" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="3" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="27" t="s">
+      <c r="B3" s="30" t="s">
         <v>128</v>
       </c>
-      <c r="C3" s="28"/>
-      <c r="D3" s="27" t="s">
+      <c r="C3" s="31"/>
+      <c r="D3" s="30" t="s">
         <v>128</v>
       </c>
-      <c r="E3" s="28"/>
-      <c r="F3" s="29" t="s">
+      <c r="E3" s="31"/>
+      <c r="F3" s="32" t="s">
         <v>129</v>
       </c>
-      <c r="G3" s="30"/>
-      <c r="H3" s="31" t="s">
+      <c r="G3" s="33"/>
+      <c r="H3" s="34" t="s">
         <v>129</v>
       </c>
-      <c r="I3" s="30"/>
+      <c r="I3" s="33"/>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B4" s="5" t="s">
@@ -3972,22 +3965,22 @@
     </row>
     <row r="20" spans="2:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="21" spans="2:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B21" s="27" t="s">
+      <c r="B21" s="30" t="s">
         <v>130</v>
       </c>
-      <c r="C21" s="28"/>
-      <c r="D21" s="27" t="s">
+      <c r="C21" s="31"/>
+      <c r="D21" s="30" t="s">
         <v>130</v>
       </c>
-      <c r="E21" s="28"/>
-      <c r="F21" s="29" t="s">
+      <c r="E21" s="31"/>
+      <c r="F21" s="32" t="s">
         <v>131</v>
       </c>
-      <c r="G21" s="30"/>
-      <c r="H21" s="29" t="s">
+      <c r="G21" s="33"/>
+      <c r="H21" s="32" t="s">
         <v>131</v>
       </c>
-      <c r="I21" s="30"/>
+      <c r="I21" s="33"/>
     </row>
     <row r="22" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B22" s="5" t="s">
@@ -4401,22 +4394,22 @@
   <sheetData>
     <row r="2" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="3" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="27" t="s">
+      <c r="B3" s="30" t="s">
         <v>128</v>
       </c>
-      <c r="C3" s="28"/>
-      <c r="D3" s="27" t="s">
+      <c r="C3" s="31"/>
+      <c r="D3" s="30" t="s">
         <v>128</v>
       </c>
-      <c r="E3" s="28"/>
-      <c r="F3" s="29" t="s">
+      <c r="E3" s="31"/>
+      <c r="F3" s="32" t="s">
         <v>129</v>
       </c>
-      <c r="G3" s="30"/>
-      <c r="H3" s="31" t="s">
+      <c r="G3" s="33"/>
+      <c r="H3" s="34" t="s">
         <v>129</v>
       </c>
-      <c r="I3" s="30"/>
+      <c r="I3" s="33"/>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B4" s="5" t="s">
@@ -4736,22 +4729,22 @@
     </row>
     <row r="20" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="21" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B21" s="27" t="s">
+      <c r="B21" s="30" t="s">
         <v>130</v>
       </c>
-      <c r="C21" s="28"/>
-      <c r="D21" s="27" t="s">
+      <c r="C21" s="31"/>
+      <c r="D21" s="30" t="s">
         <v>130</v>
       </c>
-      <c r="E21" s="28"/>
-      <c r="F21" s="29" t="s">
+      <c r="E21" s="31"/>
+      <c r="F21" s="32" t="s">
         <v>131</v>
       </c>
-      <c r="G21" s="30"/>
-      <c r="H21" s="29" t="s">
+      <c r="G21" s="33"/>
+      <c r="H21" s="32" t="s">
         <v>131</v>
       </c>
-      <c r="I21" s="30"/>
+      <c r="I21" s="33"/>
     </row>
     <row r="22" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B22" s="5" t="s">
@@ -5166,22 +5159,22 @@
   <sheetData>
     <row r="2" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="3" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="27" t="s">
+      <c r="B3" s="30" t="s">
         <v>128</v>
       </c>
-      <c r="C3" s="28"/>
-      <c r="D3" s="27" t="s">
+      <c r="C3" s="31"/>
+      <c r="D3" s="30" t="s">
         <v>128</v>
       </c>
-      <c r="E3" s="28"/>
-      <c r="F3" s="29" t="s">
+      <c r="E3" s="31"/>
+      <c r="F3" s="32" t="s">
         <v>129</v>
       </c>
-      <c r="G3" s="30"/>
-      <c r="H3" s="31" t="s">
+      <c r="G3" s="33"/>
+      <c r="H3" s="34" t="s">
         <v>129</v>
       </c>
-      <c r="I3" s="30"/>
+      <c r="I3" s="33"/>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B4" s="5" t="s">
@@ -5508,22 +5501,22 @@
     </row>
     <row r="20" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="21" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B21" s="27" t="s">
+      <c r="B21" s="30" t="s">
         <v>130</v>
       </c>
-      <c r="C21" s="28"/>
-      <c r="D21" s="27" t="s">
+      <c r="C21" s="31"/>
+      <c r="D21" s="30" t="s">
         <v>130</v>
       </c>
-      <c r="E21" s="28"/>
-      <c r="F21" s="29" t="s">
+      <c r="E21" s="31"/>
+      <c r="F21" s="32" t="s">
         <v>131</v>
       </c>
-      <c r="G21" s="30"/>
-      <c r="H21" s="29" t="s">
+      <c r="G21" s="33"/>
+      <c r="H21" s="32" t="s">
         <v>131</v>
       </c>
-      <c r="I21" s="30"/>
+      <c r="I21" s="33"/>
     </row>
     <row r="22" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B22" s="5" t="s">
@@ -5928,22 +5921,22 @@
   <sheetData>
     <row r="2" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="3" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="27" t="s">
+      <c r="B3" s="30" t="s">
         <v>128</v>
       </c>
-      <c r="C3" s="28"/>
-      <c r="D3" s="27" t="s">
+      <c r="C3" s="31"/>
+      <c r="D3" s="30" t="s">
         <v>128</v>
       </c>
-      <c r="E3" s="28"/>
-      <c r="F3" s="29" t="s">
+      <c r="E3" s="31"/>
+      <c r="F3" s="32" t="s">
         <v>129</v>
       </c>
-      <c r="G3" s="30"/>
-      <c r="H3" s="31" t="s">
+      <c r="G3" s="33"/>
+      <c r="H3" s="34" t="s">
         <v>129</v>
       </c>
-      <c r="I3" s="30"/>
+      <c r="I3" s="33"/>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B4" s="5" t="s">
@@ -6269,22 +6262,22 @@
     </row>
     <row r="20" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="21" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B21" s="27" t="s">
+      <c r="B21" s="30" t="s">
         <v>130</v>
       </c>
-      <c r="C21" s="28"/>
-      <c r="D21" s="27" t="s">
+      <c r="C21" s="31"/>
+      <c r="D21" s="30" t="s">
         <v>130</v>
       </c>
-      <c r="E21" s="28"/>
-      <c r="F21" s="29" t="s">
+      <c r="E21" s="31"/>
+      <c r="F21" s="32" t="s">
         <v>131</v>
       </c>
-      <c r="G21" s="30"/>
-      <c r="H21" s="29" t="s">
+      <c r="G21" s="33"/>
+      <c r="H21" s="32" t="s">
         <v>131</v>
       </c>
-      <c r="I21" s="30"/>
+      <c r="I21" s="33"/>
     </row>
     <row r="22" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B22" s="5" t="s">
